--- a/public/import1.xlsx
+++ b/public/import1.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="416">
   <si>
     <t>STT</t>
   </si>
@@ -1677,10 +1677,10 @@
   <dimension ref="A1:S232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H219" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A183" sqref="A183:XFD232"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1765,6 +1765,9 @@
       <c r="G2" t="s">
         <v>363</v>
       </c>
+      <c r="H2" t="s">
+        <v>334</v>
+      </c>
       <c r="I2" t="s">
         <v>334</v>
       </c>
@@ -1791,6 +1794,9 @@
       <c r="G3" t="s">
         <v>363</v>
       </c>
+      <c r="H3" t="s">
+        <v>334</v>
+      </c>
       <c r="I3" t="s">
         <v>334</v>
       </c>
@@ -1817,6 +1823,9 @@
       <c r="G4" t="s">
         <v>363</v>
       </c>
+      <c r="H4" t="s">
+        <v>334</v>
+      </c>
       <c r="I4" t="s">
         <v>334</v>
       </c>
@@ -1843,6 +1852,9 @@
       <c r="G5" t="s">
         <v>363</v>
       </c>
+      <c r="H5" t="s">
+        <v>334</v>
+      </c>
       <c r="I5" t="s">
         <v>334</v>
       </c>
@@ -1869,6 +1881,9 @@
       <c r="G6" t="s">
         <v>363</v>
       </c>
+      <c r="H6" t="s">
+        <v>334</v>
+      </c>
       <c r="I6" t="s">
         <v>334</v>
       </c>
@@ -1895,6 +1910,9 @@
       <c r="G7" t="s">
         <v>363</v>
       </c>
+      <c r="H7" t="s">
+        <v>334</v>
+      </c>
       <c r="I7" t="s">
         <v>334</v>
       </c>
@@ -1921,6 +1939,9 @@
       <c r="G8" t="s">
         <v>363</v>
       </c>
+      <c r="H8" t="s">
+        <v>334</v>
+      </c>
       <c r="I8" t="s">
         <v>334</v>
       </c>
@@ -1947,6 +1968,9 @@
       <c r="G9" t="s">
         <v>363</v>
       </c>
+      <c r="H9" t="s">
+        <v>334</v>
+      </c>
       <c r="I9" t="s">
         <v>334</v>
       </c>
@@ -1973,6 +1997,9 @@
       <c r="G10" t="s">
         <v>363</v>
       </c>
+      <c r="H10" t="s">
+        <v>334</v>
+      </c>
       <c r="I10" t="s">
         <v>334</v>
       </c>
@@ -1999,6 +2026,9 @@
       <c r="G11" t="s">
         <v>363</v>
       </c>
+      <c r="H11" t="s">
+        <v>334</v>
+      </c>
       <c r="I11" t="s">
         <v>334</v>
       </c>
@@ -2025,6 +2055,9 @@
       <c r="G12" t="s">
         <v>363</v>
       </c>
+      <c r="H12" t="s">
+        <v>334</v>
+      </c>
       <c r="I12" t="s">
         <v>334</v>
       </c>
@@ -2051,6 +2084,9 @@
       <c r="G13" t="s">
         <v>363</v>
       </c>
+      <c r="H13" t="s">
+        <v>334</v>
+      </c>
       <c r="I13" t="s">
         <v>334</v>
       </c>
@@ -2077,6 +2113,9 @@
       <c r="G14" t="s">
         <v>363</v>
       </c>
+      <c r="H14" t="s">
+        <v>334</v>
+      </c>
       <c r="I14" t="s">
         <v>334</v>
       </c>
@@ -2103,6 +2142,9 @@
       <c r="G15" t="s">
         <v>363</v>
       </c>
+      <c r="H15" t="s">
+        <v>334</v>
+      </c>
       <c r="I15" t="s">
         <v>334</v>
       </c>
@@ -2129,6 +2171,9 @@
       <c r="G16" t="s">
         <v>363</v>
       </c>
+      <c r="H16" t="s">
+        <v>334</v>
+      </c>
       <c r="I16" t="s">
         <v>334</v>
       </c>
@@ -2155,6 +2200,9 @@
       <c r="G17" t="s">
         <v>363</v>
       </c>
+      <c r="H17" t="s">
+        <v>334</v>
+      </c>
       <c r="I17" t="s">
         <v>334</v>
       </c>
@@ -2180,6 +2228,9 @@
       </c>
       <c r="G18" t="s">
         <v>363</v>
+      </c>
+      <c r="H18" t="s">
+        <v>334</v>
       </c>
       <c r="I18" t="s">
         <v>334</v>
@@ -2207,6 +2258,9 @@
       <c r="G19" t="s">
         <v>363</v>
       </c>
+      <c r="H19" t="s">
+        <v>334</v>
+      </c>
       <c r="I19" t="s">
         <v>334</v>
       </c>
@@ -2233,6 +2287,9 @@
       <c r="G20" t="s">
         <v>363</v>
       </c>
+      <c r="H20" t="s">
+        <v>334</v>
+      </c>
       <c r="I20" t="s">
         <v>334</v>
       </c>
@@ -2259,6 +2316,9 @@
       <c r="G21" t="s">
         <v>363</v>
       </c>
+      <c r="H21" t="s">
+        <v>334</v>
+      </c>
       <c r="I21" t="s">
         <v>334</v>
       </c>
@@ -2285,6 +2345,9 @@
       <c r="G22" t="s">
         <v>363</v>
       </c>
+      <c r="H22" t="s">
+        <v>334</v>
+      </c>
       <c r="I22" t="s">
         <v>334</v>
       </c>
@@ -2311,6 +2374,9 @@
       <c r="G23" t="s">
         <v>363</v>
       </c>
+      <c r="H23" t="s">
+        <v>334</v>
+      </c>
       <c r="I23" t="s">
         <v>334</v>
       </c>
@@ -2337,6 +2403,9 @@
       <c r="G24" t="s">
         <v>363</v>
       </c>
+      <c r="H24" t="s">
+        <v>334</v>
+      </c>
       <c r="I24" t="s">
         <v>334</v>
       </c>
@@ -2363,6 +2432,9 @@
       <c r="G25" t="s">
         <v>363</v>
       </c>
+      <c r="H25" t="s">
+        <v>334</v>
+      </c>
       <c r="I25" t="s">
         <v>334</v>
       </c>
@@ -2389,6 +2461,9 @@
       <c r="G26" t="s">
         <v>363</v>
       </c>
+      <c r="H26" t="s">
+        <v>334</v>
+      </c>
       <c r="I26" t="s">
         <v>334</v>
       </c>
@@ -2415,6 +2490,9 @@
       <c r="G27" t="s">
         <v>363</v>
       </c>
+      <c r="H27" t="s">
+        <v>334</v>
+      </c>
       <c r="I27" t="s">
         <v>334</v>
       </c>
@@ -2441,6 +2519,9 @@
       <c r="G28" t="s">
         <v>363</v>
       </c>
+      <c r="H28" t="s">
+        <v>334</v>
+      </c>
       <c r="I28" t="s">
         <v>334</v>
       </c>
@@ -2467,6 +2548,9 @@
       <c r="G29" t="s">
         <v>363</v>
       </c>
+      <c r="H29" t="s">
+        <v>334</v>
+      </c>
       <c r="I29" t="s">
         <v>334</v>
       </c>
@@ -2493,6 +2577,9 @@
       <c r="G30" t="s">
         <v>363</v>
       </c>
+      <c r="H30" t="s">
+        <v>334</v>
+      </c>
       <c r="I30" t="s">
         <v>334</v>
       </c>
@@ -2519,6 +2606,9 @@
       <c r="G31" t="s">
         <v>363</v>
       </c>
+      <c r="H31" t="s">
+        <v>334</v>
+      </c>
       <c r="I31" t="s">
         <v>334</v>
       </c>
@@ -2545,6 +2635,9 @@
       <c r="G32" t="s">
         <v>363</v>
       </c>
+      <c r="H32" t="s">
+        <v>334</v>
+      </c>
       <c r="I32" t="s">
         <v>334</v>
       </c>
@@ -2571,6 +2664,9 @@
       <c r="G33" t="s">
         <v>363</v>
       </c>
+      <c r="H33" t="s">
+        <v>334</v>
+      </c>
       <c r="I33" t="s">
         <v>334</v>
       </c>
@@ -2597,6 +2693,9 @@
       <c r="G34" t="s">
         <v>363</v>
       </c>
+      <c r="H34" t="s">
+        <v>334</v>
+      </c>
       <c r="I34" t="s">
         <v>334</v>
       </c>
@@ -2623,6 +2722,9 @@
       <c r="G35" t="s">
         <v>363</v>
       </c>
+      <c r="H35" t="s">
+        <v>334</v>
+      </c>
       <c r="I35" t="s">
         <v>334</v>
       </c>
@@ -2649,6 +2751,9 @@
       <c r="G36" t="s">
         <v>363</v>
       </c>
+      <c r="H36" t="s">
+        <v>334</v>
+      </c>
       <c r="I36" t="s">
         <v>334</v>
       </c>
@@ -2675,6 +2780,9 @@
       <c r="G37" t="s">
         <v>363</v>
       </c>
+      <c r="H37" t="s">
+        <v>334</v>
+      </c>
       <c r="I37" t="s">
         <v>334</v>
       </c>
@@ -2701,6 +2809,9 @@
       <c r="G38" t="s">
         <v>363</v>
       </c>
+      <c r="H38" t="s">
+        <v>334</v>
+      </c>
       <c r="I38" t="s">
         <v>334</v>
       </c>
@@ -2727,6 +2838,9 @@
       <c r="G39" t="s">
         <v>363</v>
       </c>
+      <c r="H39" t="s">
+        <v>334</v>
+      </c>
       <c r="I39" t="s">
         <v>334</v>
       </c>
@@ -2753,6 +2867,9 @@
       <c r="G40" t="s">
         <v>363</v>
       </c>
+      <c r="H40" t="s">
+        <v>334</v>
+      </c>
       <c r="I40" t="s">
         <v>334</v>
       </c>
@@ -2779,6 +2896,9 @@
       <c r="G41" t="s">
         <v>363</v>
       </c>
+      <c r="H41" t="s">
+        <v>334</v>
+      </c>
       <c r="I41" t="s">
         <v>334</v>
       </c>
@@ -2805,6 +2925,9 @@
       <c r="G42" t="s">
         <v>363</v>
       </c>
+      <c r="H42" t="s">
+        <v>334</v>
+      </c>
       <c r="I42" t="s">
         <v>334</v>
       </c>
@@ -2831,6 +2954,9 @@
       <c r="G43" t="s">
         <v>363</v>
       </c>
+      <c r="H43" t="s">
+        <v>334</v>
+      </c>
       <c r="I43" t="s">
         <v>334</v>
       </c>
@@ -2857,6 +2983,9 @@
       <c r="G44" t="s">
         <v>363</v>
       </c>
+      <c r="H44" t="s">
+        <v>334</v>
+      </c>
       <c r="I44" t="s">
         <v>334</v>
       </c>
@@ -2883,6 +3012,9 @@
       <c r="G45" t="s">
         <v>363</v>
       </c>
+      <c r="H45" t="s">
+        <v>334</v>
+      </c>
       <c r="I45" t="s">
         <v>334</v>
       </c>
@@ -2909,6 +3041,9 @@
       <c r="G46" t="s">
         <v>363</v>
       </c>
+      <c r="H46" t="s">
+        <v>334</v>
+      </c>
       <c r="I46" t="s">
         <v>334</v>
       </c>
@@ -2935,6 +3070,9 @@
       <c r="G47" t="s">
         <v>363</v>
       </c>
+      <c r="H47" t="s">
+        <v>334</v>
+      </c>
       <c r="I47" t="s">
         <v>334</v>
       </c>
@@ -2961,6 +3099,9 @@
       <c r="G48" t="s">
         <v>363</v>
       </c>
+      <c r="H48" t="s">
+        <v>334</v>
+      </c>
       <c r="I48" t="s">
         <v>334</v>
       </c>
@@ -2987,6 +3128,9 @@
       <c r="G49" t="s">
         <v>363</v>
       </c>
+      <c r="H49" t="s">
+        <v>334</v>
+      </c>
       <c r="I49" t="s">
         <v>334</v>
       </c>
@@ -3013,6 +3157,9 @@
       <c r="G50" t="s">
         <v>363</v>
       </c>
+      <c r="H50" t="s">
+        <v>334</v>
+      </c>
       <c r="I50" t="s">
         <v>334</v>
       </c>
@@ -3039,6 +3186,9 @@
       <c r="G51" t="s">
         <v>363</v>
       </c>
+      <c r="H51" t="s">
+        <v>334</v>
+      </c>
       <c r="I51" t="s">
         <v>334</v>
       </c>
@@ -3065,6 +3215,9 @@
       <c r="G52" t="s">
         <v>363</v>
       </c>
+      <c r="H52" t="s">
+        <v>334</v>
+      </c>
       <c r="I52" t="s">
         <v>334</v>
       </c>
@@ -3091,6 +3244,9 @@
       <c r="G53" t="s">
         <v>363</v>
       </c>
+      <c r="H53" t="s">
+        <v>334</v>
+      </c>
       <c r="I53" t="s">
         <v>334</v>
       </c>
@@ -3117,6 +3273,9 @@
       <c r="G54" t="s">
         <v>363</v>
       </c>
+      <c r="H54" t="s">
+        <v>334</v>
+      </c>
       <c r="I54" t="s">
         <v>334</v>
       </c>
@@ -3143,6 +3302,9 @@
       <c r="G55" t="s">
         <v>363</v>
       </c>
+      <c r="H55" t="s">
+        <v>334</v>
+      </c>
       <c r="I55" t="s">
         <v>334</v>
       </c>
@@ -3169,6 +3331,9 @@
       <c r="G56" t="s">
         <v>363</v>
       </c>
+      <c r="H56" t="s">
+        <v>334</v>
+      </c>
       <c r="I56" t="s">
         <v>334</v>
       </c>
@@ -3195,6 +3360,9 @@
       <c r="G57" t="s">
         <v>363</v>
       </c>
+      <c r="H57" t="s">
+        <v>334</v>
+      </c>
       <c r="I57" t="s">
         <v>334</v>
       </c>
@@ -3221,6 +3389,9 @@
       <c r="G58" t="s">
         <v>363</v>
       </c>
+      <c r="H58" t="s">
+        <v>334</v>
+      </c>
       <c r="I58" t="s">
         <v>334</v>
       </c>
@@ -3247,6 +3418,9 @@
       <c r="G59" t="s">
         <v>363</v>
       </c>
+      <c r="H59" t="s">
+        <v>334</v>
+      </c>
       <c r="I59" t="s">
         <v>334</v>
       </c>
@@ -3273,6 +3447,9 @@
       <c r="G60" t="s">
         <v>363</v>
       </c>
+      <c r="H60" t="s">
+        <v>334</v>
+      </c>
       <c r="I60" t="s">
         <v>334</v>
       </c>
@@ -3299,6 +3476,9 @@
       <c r="G61" t="s">
         <v>363</v>
       </c>
+      <c r="H61" t="s">
+        <v>334</v>
+      </c>
       <c r="I61" t="s">
         <v>334</v>
       </c>
@@ -3325,6 +3505,9 @@
       <c r="G62" t="s">
         <v>363</v>
       </c>
+      <c r="H62" t="s">
+        <v>334</v>
+      </c>
       <c r="I62" t="s">
         <v>334</v>
       </c>
@@ -3351,6 +3534,9 @@
       <c r="G63" t="s">
         <v>363</v>
       </c>
+      <c r="H63" t="s">
+        <v>334</v>
+      </c>
       <c r="I63" t="s">
         <v>334</v>
       </c>
@@ -3377,6 +3563,9 @@
       <c r="G64" t="s">
         <v>363</v>
       </c>
+      <c r="H64" t="s">
+        <v>334</v>
+      </c>
       <c r="I64" t="s">
         <v>334</v>
       </c>
@@ -3403,6 +3592,9 @@
       <c r="G65" t="s">
         <v>363</v>
       </c>
+      <c r="H65" t="s">
+        <v>334</v>
+      </c>
       <c r="I65" t="s">
         <v>334</v>
       </c>
@@ -3429,6 +3621,9 @@
       <c r="G66" t="s">
         <v>363</v>
       </c>
+      <c r="H66" t="s">
+        <v>334</v>
+      </c>
       <c r="I66" t="s">
         <v>334</v>
       </c>
@@ -3455,6 +3650,9 @@
       <c r="G67" t="s">
         <v>363</v>
       </c>
+      <c r="H67" t="s">
+        <v>334</v>
+      </c>
       <c r="I67" t="s">
         <v>334</v>
       </c>
@@ -3481,6 +3679,9 @@
       <c r="G68" t="s">
         <v>363</v>
       </c>
+      <c r="H68" t="s">
+        <v>334</v>
+      </c>
       <c r="I68" t="s">
         <v>334</v>
       </c>
@@ -3507,6 +3708,9 @@
       <c r="G69" t="s">
         <v>363</v>
       </c>
+      <c r="H69" t="s">
+        <v>334</v>
+      </c>
       <c r="I69" t="s">
         <v>334</v>
       </c>
@@ -3533,6 +3737,9 @@
       <c r="G70" t="s">
         <v>363</v>
       </c>
+      <c r="H70" t="s">
+        <v>334</v>
+      </c>
       <c r="I70" t="s">
         <v>334</v>
       </c>
@@ -3559,6 +3766,9 @@
       <c r="G71" t="s">
         <v>363</v>
       </c>
+      <c r="H71" t="s">
+        <v>334</v>
+      </c>
       <c r="I71" t="s">
         <v>334</v>
       </c>
@@ -3585,6 +3795,9 @@
       <c r="G72" t="s">
         <v>363</v>
       </c>
+      <c r="H72" t="s">
+        <v>334</v>
+      </c>
       <c r="I72" t="s">
         <v>334</v>
       </c>
@@ -3611,6 +3824,9 @@
       <c r="G73" t="s">
         <v>363</v>
       </c>
+      <c r="H73" t="s">
+        <v>334</v>
+      </c>
       <c r="I73" t="s">
         <v>334</v>
       </c>
@@ -3637,6 +3853,9 @@
       <c r="G74" t="s">
         <v>363</v>
       </c>
+      <c r="H74" t="s">
+        <v>334</v>
+      </c>
       <c r="I74" t="s">
         <v>334</v>
       </c>
@@ -3663,6 +3882,9 @@
       <c r="G75" t="s">
         <v>363</v>
       </c>
+      <c r="H75" t="s">
+        <v>334</v>
+      </c>
       <c r="I75" t="s">
         <v>334</v>
       </c>
@@ -3689,6 +3911,9 @@
       <c r="G76" t="s">
         <v>363</v>
       </c>
+      <c r="H76" t="s">
+        <v>334</v>
+      </c>
       <c r="I76" t="s">
         <v>334</v>
       </c>
@@ -3715,6 +3940,9 @@
       <c r="G77" t="s">
         <v>363</v>
       </c>
+      <c r="H77" t="s">
+        <v>334</v>
+      </c>
       <c r="I77" t="s">
         <v>334</v>
       </c>
@@ -3741,6 +3969,9 @@
       <c r="G78" t="s">
         <v>363</v>
       </c>
+      <c r="H78" t="s">
+        <v>334</v>
+      </c>
       <c r="I78" t="s">
         <v>334</v>
       </c>
@@ -3767,6 +3998,9 @@
       <c r="G79" t="s">
         <v>363</v>
       </c>
+      <c r="H79" t="s">
+        <v>334</v>
+      </c>
       <c r="I79" t="s">
         <v>334</v>
       </c>
@@ -3793,6 +4027,9 @@
       <c r="G80" t="s">
         <v>363</v>
       </c>
+      <c r="H80" t="s">
+        <v>334</v>
+      </c>
       <c r="I80" t="s">
         <v>334</v>
       </c>
@@ -3819,6 +4056,9 @@
       <c r="G81" t="s">
         <v>363</v>
       </c>
+      <c r="H81" t="s">
+        <v>334</v>
+      </c>
       <c r="I81" t="s">
         <v>334</v>
       </c>
@@ -3845,6 +4085,9 @@
       <c r="G82" t="s">
         <v>363</v>
       </c>
+      <c r="H82" t="s">
+        <v>334</v>
+      </c>
       <c r="I82" t="s">
         <v>334</v>
       </c>
@@ -3871,6 +4114,9 @@
       <c r="G83" t="s">
         <v>363</v>
       </c>
+      <c r="H83" t="s">
+        <v>334</v>
+      </c>
       <c r="I83" t="s">
         <v>334</v>
       </c>
@@ -3897,6 +4143,9 @@
       <c r="G84" t="s">
         <v>363</v>
       </c>
+      <c r="H84" t="s">
+        <v>334</v>
+      </c>
       <c r="I84" t="s">
         <v>334</v>
       </c>
@@ -3923,6 +4172,9 @@
       <c r="G85" t="s">
         <v>363</v>
       </c>
+      <c r="H85" t="s">
+        <v>334</v>
+      </c>
       <c r="I85" t="s">
         <v>334</v>
       </c>
@@ -3949,6 +4201,9 @@
       <c r="G86" t="s">
         <v>363</v>
       </c>
+      <c r="H86" t="s">
+        <v>334</v>
+      </c>
       <c r="I86" t="s">
         <v>334</v>
       </c>
@@ -3975,6 +4230,9 @@
       <c r="G87" t="s">
         <v>363</v>
       </c>
+      <c r="H87" t="s">
+        <v>334</v>
+      </c>
       <c r="I87" t="s">
         <v>334</v>
       </c>
@@ -4001,6 +4259,9 @@
       <c r="G88" t="s">
         <v>363</v>
       </c>
+      <c r="H88" t="s">
+        <v>334</v>
+      </c>
       <c r="I88" t="s">
         <v>334</v>
       </c>
@@ -4027,6 +4288,9 @@
       <c r="G89" t="s">
         <v>363</v>
       </c>
+      <c r="H89" t="s">
+        <v>334</v>
+      </c>
       <c r="I89" t="s">
         <v>334</v>
       </c>
@@ -4053,6 +4317,9 @@
       <c r="G90" t="s">
         <v>363</v>
       </c>
+      <c r="H90" t="s">
+        <v>334</v>
+      </c>
       <c r="I90" t="s">
         <v>334</v>
       </c>
@@ -4079,6 +4346,9 @@
       <c r="G91" t="s">
         <v>363</v>
       </c>
+      <c r="H91" t="s">
+        <v>334</v>
+      </c>
       <c r="I91" t="s">
         <v>334</v>
       </c>
@@ -4105,6 +4375,9 @@
       <c r="G92" t="s">
         <v>363</v>
       </c>
+      <c r="H92" t="s">
+        <v>334</v>
+      </c>
       <c r="I92" t="s">
         <v>334</v>
       </c>
@@ -4131,6 +4404,9 @@
       <c r="G93" t="s">
         <v>363</v>
       </c>
+      <c r="H93" t="s">
+        <v>334</v>
+      </c>
       <c r="I93" t="s">
         <v>334</v>
       </c>
@@ -4157,6 +4433,9 @@
       <c r="G94" t="s">
         <v>363</v>
       </c>
+      <c r="H94" t="s">
+        <v>334</v>
+      </c>
       <c r="I94" t="s">
         <v>334</v>
       </c>
@@ -4183,6 +4462,9 @@
       <c r="G95" t="s">
         <v>363</v>
       </c>
+      <c r="H95" t="s">
+        <v>334</v>
+      </c>
       <c r="I95" t="s">
         <v>334</v>
       </c>
@@ -4209,6 +4491,9 @@
       <c r="G96" t="s">
         <v>363</v>
       </c>
+      <c r="H96" t="s">
+        <v>334</v>
+      </c>
       <c r="I96" t="s">
         <v>334</v>
       </c>
@@ -4235,6 +4520,9 @@
       <c r="G97" t="s">
         <v>363</v>
       </c>
+      <c r="H97" t="s">
+        <v>334</v>
+      </c>
       <c r="I97" t="s">
         <v>334</v>
       </c>
@@ -4261,6 +4549,9 @@
       <c r="G98" t="s">
         <v>363</v>
       </c>
+      <c r="H98" t="s">
+        <v>334</v>
+      </c>
       <c r="I98" t="s">
         <v>334</v>
       </c>
@@ -4287,6 +4578,9 @@
       <c r="G99" t="s">
         <v>363</v>
       </c>
+      <c r="H99" t="s">
+        <v>334</v>
+      </c>
       <c r="I99" t="s">
         <v>334</v>
       </c>
@@ -4313,6 +4607,9 @@
       <c r="G100" t="s">
         <v>363</v>
       </c>
+      <c r="H100" t="s">
+        <v>334</v>
+      </c>
       <c r="I100" t="s">
         <v>334</v>
       </c>
@@ -4339,6 +4636,9 @@
       <c r="G101" t="s">
         <v>363</v>
       </c>
+      <c r="H101" t="s">
+        <v>334</v>
+      </c>
       <c r="I101" t="s">
         <v>334</v>
       </c>
@@ -4365,6 +4665,9 @@
       <c r="G102" t="s">
         <v>363</v>
       </c>
+      <c r="H102" t="s">
+        <v>334</v>
+      </c>
       <c r="I102" t="s">
         <v>334</v>
       </c>
@@ -4391,6 +4694,9 @@
       <c r="G103" t="s">
         <v>363</v>
       </c>
+      <c r="H103" t="s">
+        <v>334</v>
+      </c>
       <c r="I103" t="s">
         <v>334</v>
       </c>
@@ -4417,6 +4723,9 @@
       <c r="G104" t="s">
         <v>363</v>
       </c>
+      <c r="H104" t="s">
+        <v>334</v>
+      </c>
       <c r="I104" t="s">
         <v>334</v>
       </c>
@@ -4443,6 +4752,9 @@
       <c r="G105" t="s">
         <v>363</v>
       </c>
+      <c r="H105" t="s">
+        <v>334</v>
+      </c>
       <c r="I105" t="s">
         <v>334</v>
       </c>
@@ -4469,6 +4781,9 @@
       <c r="G106" t="s">
         <v>363</v>
       </c>
+      <c r="H106" t="s">
+        <v>334</v>
+      </c>
       <c r="I106" t="s">
         <v>334</v>
       </c>
@@ -4495,6 +4810,9 @@
       <c r="G107" t="s">
         <v>363</v>
       </c>
+      <c r="H107" t="s">
+        <v>334</v>
+      </c>
       <c r="I107" t="s">
         <v>334</v>
       </c>
@@ -4521,6 +4839,9 @@
       <c r="G108" t="s">
         <v>363</v>
       </c>
+      <c r="H108" t="s">
+        <v>334</v>
+      </c>
       <c r="I108" t="s">
         <v>334</v>
       </c>
@@ -4547,6 +4868,9 @@
       <c r="G109" t="s">
         <v>363</v>
       </c>
+      <c r="H109" t="s">
+        <v>334</v>
+      </c>
       <c r="I109" t="s">
         <v>334</v>
       </c>
@@ -4573,6 +4897,9 @@
       <c r="G110" t="s">
         <v>363</v>
       </c>
+      <c r="H110" t="s">
+        <v>334</v>
+      </c>
       <c r="I110" t="s">
         <v>334</v>
       </c>
@@ -4599,6 +4926,9 @@
       <c r="G111" t="s">
         <v>363</v>
       </c>
+      <c r="H111" t="s">
+        <v>334</v>
+      </c>
       <c r="I111" t="s">
         <v>334</v>
       </c>
@@ -4625,6 +4955,9 @@
       <c r="G112" t="s">
         <v>363</v>
       </c>
+      <c r="H112" t="s">
+        <v>334</v>
+      </c>
       <c r="I112" t="s">
         <v>334</v>
       </c>
@@ -4651,6 +4984,9 @@
       <c r="G113" t="s">
         <v>363</v>
       </c>
+      <c r="H113" t="s">
+        <v>334</v>
+      </c>
       <c r="I113" t="s">
         <v>334</v>
       </c>
@@ -4677,6 +5013,9 @@
       <c r="G114" t="s">
         <v>363</v>
       </c>
+      <c r="H114" t="s">
+        <v>334</v>
+      </c>
       <c r="I114" t="s">
         <v>334</v>
       </c>
@@ -4703,6 +5042,9 @@
       <c r="G115" t="s">
         <v>363</v>
       </c>
+      <c r="H115" t="s">
+        <v>334</v>
+      </c>
       <c r="I115" t="s">
         <v>334</v>
       </c>
@@ -4729,6 +5071,9 @@
       <c r="G116" t="s">
         <v>363</v>
       </c>
+      <c r="H116" t="s">
+        <v>334</v>
+      </c>
       <c r="I116" t="s">
         <v>334</v>
       </c>
@@ -4755,6 +5100,9 @@
       <c r="G117" t="s">
         <v>363</v>
       </c>
+      <c r="H117" t="s">
+        <v>334</v>
+      </c>
       <c r="I117" t="s">
         <v>334</v>
       </c>
@@ -4781,6 +5129,9 @@
       <c r="G118" t="s">
         <v>363</v>
       </c>
+      <c r="H118" t="s">
+        <v>334</v>
+      </c>
       <c r="I118" t="s">
         <v>334</v>
       </c>
@@ -4807,6 +5158,9 @@
       <c r="G119" t="s">
         <v>363</v>
       </c>
+      <c r="H119" t="s">
+        <v>334</v>
+      </c>
       <c r="I119" t="s">
         <v>334</v>
       </c>
@@ -4833,6 +5187,9 @@
       <c r="G120" t="s">
         <v>363</v>
       </c>
+      <c r="H120" t="s">
+        <v>334</v>
+      </c>
       <c r="I120" t="s">
         <v>334</v>
       </c>
@@ -4859,6 +5216,9 @@
       <c r="G121" t="s">
         <v>363</v>
       </c>
+      <c r="H121" t="s">
+        <v>334</v>
+      </c>
       <c r="I121" t="s">
         <v>334</v>
       </c>
@@ -4885,6 +5245,9 @@
       <c r="G122" t="s">
         <v>363</v>
       </c>
+      <c r="H122" t="s">
+        <v>334</v>
+      </c>
       <c r="I122" t="s">
         <v>334</v>
       </c>
@@ -4911,6 +5274,9 @@
       <c r="G123" t="s">
         <v>363</v>
       </c>
+      <c r="H123" t="s">
+        <v>334</v>
+      </c>
       <c r="I123" t="s">
         <v>334</v>
       </c>
@@ -4937,6 +5303,9 @@
       <c r="G124" t="s">
         <v>363</v>
       </c>
+      <c r="H124" t="s">
+        <v>334</v>
+      </c>
       <c r="I124" t="s">
         <v>334</v>
       </c>
@@ -4963,6 +5332,9 @@
       <c r="G125" t="s">
         <v>363</v>
       </c>
+      <c r="H125" t="s">
+        <v>334</v>
+      </c>
       <c r="I125" t="s">
         <v>334</v>
       </c>
@@ -4989,6 +5361,9 @@
       <c r="G126" t="s">
         <v>363</v>
       </c>
+      <c r="H126" t="s">
+        <v>334</v>
+      </c>
       <c r="I126" t="s">
         <v>334</v>
       </c>
@@ -5015,6 +5390,9 @@
       <c r="G127" t="s">
         <v>363</v>
       </c>
+      <c r="H127" t="s">
+        <v>334</v>
+      </c>
       <c r="I127" t="s">
         <v>334</v>
       </c>
@@ -5041,6 +5419,9 @@
       <c r="G128" t="s">
         <v>363</v>
       </c>
+      <c r="H128" t="s">
+        <v>334</v>
+      </c>
       <c r="I128" t="s">
         <v>334</v>
       </c>
@@ -5067,6 +5448,9 @@
       <c r="G129" t="s">
         <v>363</v>
       </c>
+      <c r="H129" t="s">
+        <v>334</v>
+      </c>
       <c r="I129" t="s">
         <v>334</v>
       </c>
@@ -5093,6 +5477,9 @@
       <c r="G130" t="s">
         <v>363</v>
       </c>
+      <c r="H130" t="s">
+        <v>334</v>
+      </c>
       <c r="I130" t="s">
         <v>334</v>
       </c>
@@ -5119,6 +5506,9 @@
       <c r="G131" t="s">
         <v>363</v>
       </c>
+      <c r="H131" t="s">
+        <v>334</v>
+      </c>
       <c r="I131" t="s">
         <v>334</v>
       </c>
@@ -5145,6 +5535,9 @@
       <c r="G132" t="s">
         <v>363</v>
       </c>
+      <c r="H132" t="s">
+        <v>334</v>
+      </c>
       <c r="I132" t="s">
         <v>334</v>
       </c>
@@ -5171,6 +5564,9 @@
       <c r="G133" t="s">
         <v>363</v>
       </c>
+      <c r="H133" t="s">
+        <v>334</v>
+      </c>
       <c r="I133" t="s">
         <v>334</v>
       </c>
@@ -5197,6 +5593,9 @@
       <c r="G134" t="s">
         <v>363</v>
       </c>
+      <c r="H134" t="s">
+        <v>334</v>
+      </c>
       <c r="I134" t="s">
         <v>334</v>
       </c>
@@ -5223,6 +5622,9 @@
       <c r="G135" t="s">
         <v>363</v>
       </c>
+      <c r="H135" t="s">
+        <v>334</v>
+      </c>
       <c r="I135" t="s">
         <v>334</v>
       </c>
@@ -5249,6 +5651,9 @@
       <c r="G136" t="s">
         <v>363</v>
       </c>
+      <c r="H136" t="s">
+        <v>334</v>
+      </c>
       <c r="I136" t="s">
         <v>334</v>
       </c>
@@ -5275,6 +5680,9 @@
       <c r="G137" t="s">
         <v>363</v>
       </c>
+      <c r="H137" t="s">
+        <v>334</v>
+      </c>
       <c r="I137" t="s">
         <v>334</v>
       </c>
@@ -5301,6 +5709,9 @@
       <c r="G138" t="s">
         <v>363</v>
       </c>
+      <c r="H138" t="s">
+        <v>334</v>
+      </c>
       <c r="I138" t="s">
         <v>334</v>
       </c>
@@ -5327,6 +5738,9 @@
       <c r="G139" t="s">
         <v>363</v>
       </c>
+      <c r="H139" t="s">
+        <v>334</v>
+      </c>
       <c r="I139" t="s">
         <v>334</v>
       </c>
@@ -5353,6 +5767,9 @@
       <c r="G140" t="s">
         <v>363</v>
       </c>
+      <c r="H140" t="s">
+        <v>334</v>
+      </c>
       <c r="I140" t="s">
         <v>334</v>
       </c>
@@ -5379,6 +5796,9 @@
       <c r="G141" t="s">
         <v>363</v>
       </c>
+      <c r="H141" t="s">
+        <v>334</v>
+      </c>
       <c r="I141" t="s">
         <v>334</v>
       </c>
@@ -5405,6 +5825,9 @@
       <c r="G142" t="s">
         <v>363</v>
       </c>
+      <c r="H142" t="s">
+        <v>334</v>
+      </c>
       <c r="I142" t="s">
         <v>334</v>
       </c>
@@ -5431,6 +5854,9 @@
       <c r="G143" t="s">
         <v>363</v>
       </c>
+      <c r="H143" t="s">
+        <v>334</v>
+      </c>
       <c r="I143" t="s">
         <v>334</v>
       </c>
@@ -5457,6 +5883,9 @@
       <c r="G144" t="s">
         <v>363</v>
       </c>
+      <c r="H144" t="s">
+        <v>334</v>
+      </c>
       <c r="I144" t="s">
         <v>334</v>
       </c>
@@ -5483,6 +5912,9 @@
       <c r="G145" t="s">
         <v>363</v>
       </c>
+      <c r="H145" t="s">
+        <v>334</v>
+      </c>
       <c r="I145" t="s">
         <v>334</v>
       </c>
@@ -5509,6 +5941,9 @@
       <c r="G146" t="s">
         <v>363</v>
       </c>
+      <c r="H146" t="s">
+        <v>334</v>
+      </c>
       <c r="I146" t="s">
         <v>334</v>
       </c>
@@ -5535,6 +5970,9 @@
       <c r="G147" t="s">
         <v>363</v>
       </c>
+      <c r="H147" t="s">
+        <v>334</v>
+      </c>
       <c r="I147" t="s">
         <v>334</v>
       </c>
@@ -5561,6 +5999,9 @@
       <c r="G148" t="s">
         <v>363</v>
       </c>
+      <c r="H148" t="s">
+        <v>334</v>
+      </c>
       <c r="I148" t="s">
         <v>334</v>
       </c>
@@ -5587,6 +6028,9 @@
       <c r="G149" t="s">
         <v>363</v>
       </c>
+      <c r="H149" t="s">
+        <v>334</v>
+      </c>
       <c r="I149" t="s">
         <v>334</v>
       </c>
@@ -5613,6 +6057,9 @@
       <c r="G150" t="s">
         <v>363</v>
       </c>
+      <c r="H150" t="s">
+        <v>334</v>
+      </c>
       <c r="I150" t="s">
         <v>334</v>
       </c>
@@ -5639,6 +6086,9 @@
       <c r="G151" t="s">
         <v>363</v>
       </c>
+      <c r="H151" t="s">
+        <v>334</v>
+      </c>
       <c r="I151" t="s">
         <v>334</v>
       </c>
@@ -5665,6 +6115,9 @@
       <c r="G152" t="s">
         <v>363</v>
       </c>
+      <c r="H152" t="s">
+        <v>334</v>
+      </c>
       <c r="I152" t="s">
         <v>334</v>
       </c>
@@ -5691,6 +6144,9 @@
       <c r="G153" t="s">
         <v>363</v>
       </c>
+      <c r="H153" t="s">
+        <v>334</v>
+      </c>
       <c r="I153" t="s">
         <v>334</v>
       </c>
@@ -5717,6 +6173,9 @@
       <c r="G154" t="s">
         <v>363</v>
       </c>
+      <c r="H154" t="s">
+        <v>334</v>
+      </c>
       <c r="I154" t="s">
         <v>334</v>
       </c>
@@ -5743,6 +6202,9 @@
       <c r="G155" t="s">
         <v>363</v>
       </c>
+      <c r="H155" t="s">
+        <v>334</v>
+      </c>
       <c r="I155" t="s">
         <v>334</v>
       </c>
@@ -5769,6 +6231,9 @@
       <c r="G156" t="s">
         <v>363</v>
       </c>
+      <c r="H156" t="s">
+        <v>334</v>
+      </c>
       <c r="I156" t="s">
         <v>334</v>
       </c>
@@ -5795,6 +6260,9 @@
       <c r="G157" t="s">
         <v>363</v>
       </c>
+      <c r="H157" t="s">
+        <v>334</v>
+      </c>
       <c r="I157" t="s">
         <v>334</v>
       </c>
@@ -5821,6 +6289,9 @@
       <c r="G158" t="s">
         <v>363</v>
       </c>
+      <c r="H158" t="s">
+        <v>334</v>
+      </c>
       <c r="I158" t="s">
         <v>334</v>
       </c>
@@ -5847,6 +6318,9 @@
       <c r="G159" t="s">
         <v>363</v>
       </c>
+      <c r="H159" t="s">
+        <v>334</v>
+      </c>
       <c r="I159" t="s">
         <v>334</v>
       </c>
@@ -5873,6 +6347,9 @@
       <c r="G160" t="s">
         <v>363</v>
       </c>
+      <c r="H160" t="s">
+        <v>334</v>
+      </c>
       <c r="I160" t="s">
         <v>334</v>
       </c>
@@ -5899,6 +6376,9 @@
       <c r="G161" t="s">
         <v>363</v>
       </c>
+      <c r="H161" t="s">
+        <v>334</v>
+      </c>
       <c r="I161" t="s">
         <v>334</v>
       </c>
@@ -5925,6 +6405,9 @@
       <c r="G162" t="s">
         <v>363</v>
       </c>
+      <c r="H162" t="s">
+        <v>334</v>
+      </c>
       <c r="I162" t="s">
         <v>334</v>
       </c>
@@ -5951,6 +6434,9 @@
       <c r="G163" t="s">
         <v>363</v>
       </c>
+      <c r="H163" t="s">
+        <v>334</v>
+      </c>
       <c r="I163" t="s">
         <v>334</v>
       </c>
@@ -5977,6 +6463,9 @@
       <c r="G164" t="s">
         <v>363</v>
       </c>
+      <c r="H164" t="s">
+        <v>334</v>
+      </c>
       <c r="I164" t="s">
         <v>334</v>
       </c>
@@ -6003,6 +6492,9 @@
       <c r="G165" t="s">
         <v>363</v>
       </c>
+      <c r="H165" t="s">
+        <v>334</v>
+      </c>
       <c r="I165" t="s">
         <v>334</v>
       </c>
@@ -6029,6 +6521,9 @@
       <c r="G166" t="s">
         <v>363</v>
       </c>
+      <c r="H166" t="s">
+        <v>334</v>
+      </c>
       <c r="I166" t="s">
         <v>334</v>
       </c>
@@ -6055,6 +6550,9 @@
       <c r="G167" t="s">
         <v>363</v>
       </c>
+      <c r="H167" t="s">
+        <v>334</v>
+      </c>
       <c r="I167" t="s">
         <v>334</v>
       </c>
@@ -6081,6 +6579,9 @@
       <c r="G168" t="s">
         <v>363</v>
       </c>
+      <c r="H168" t="s">
+        <v>334</v>
+      </c>
       <c r="I168" t="s">
         <v>334</v>
       </c>
@@ -6107,6 +6608,9 @@
       <c r="G169" t="s">
         <v>363</v>
       </c>
+      <c r="H169" t="s">
+        <v>334</v>
+      </c>
       <c r="I169" t="s">
         <v>334</v>
       </c>
@@ -6133,6 +6637,9 @@
       <c r="G170" t="s">
         <v>363</v>
       </c>
+      <c r="H170" t="s">
+        <v>334</v>
+      </c>
       <c r="I170" t="s">
         <v>334</v>
       </c>
@@ -6159,6 +6666,9 @@
       <c r="G171" t="s">
         <v>363</v>
       </c>
+      <c r="H171" t="s">
+        <v>334</v>
+      </c>
       <c r="I171" t="s">
         <v>334</v>
       </c>
@@ -6185,6 +6695,9 @@
       <c r="G172" t="s">
         <v>363</v>
       </c>
+      <c r="H172" t="s">
+        <v>334</v>
+      </c>
       <c r="I172" t="s">
         <v>334</v>
       </c>
@@ -6211,6 +6724,9 @@
       <c r="G173" t="s">
         <v>363</v>
       </c>
+      <c r="H173" t="s">
+        <v>334</v>
+      </c>
       <c r="I173" t="s">
         <v>334</v>
       </c>
@@ -6237,6 +6753,9 @@
       <c r="G174" t="s">
         <v>363</v>
       </c>
+      <c r="H174" t="s">
+        <v>334</v>
+      </c>
       <c r="I174" t="s">
         <v>334</v>
       </c>
@@ -6263,6 +6782,9 @@
       <c r="G175" t="s">
         <v>363</v>
       </c>
+      <c r="H175" t="s">
+        <v>334</v>
+      </c>
       <c r="I175" t="s">
         <v>334</v>
       </c>
@@ -6289,6 +6811,9 @@
       <c r="G176" t="s">
         <v>363</v>
       </c>
+      <c r="H176" t="s">
+        <v>334</v>
+      </c>
       <c r="I176" t="s">
         <v>334</v>
       </c>
@@ -6315,6 +6840,9 @@
       <c r="G177" t="s">
         <v>363</v>
       </c>
+      <c r="H177" t="s">
+        <v>334</v>
+      </c>
       <c r="I177" t="s">
         <v>334</v>
       </c>
@@ -6341,6 +6869,9 @@
       <c r="G178" t="s">
         <v>363</v>
       </c>
+      <c r="H178" t="s">
+        <v>334</v>
+      </c>
       <c r="I178" t="s">
         <v>334</v>
       </c>
@@ -6367,6 +6898,9 @@
       <c r="G179" t="s">
         <v>363</v>
       </c>
+      <c r="H179" t="s">
+        <v>334</v>
+      </c>
       <c r="I179" t="s">
         <v>334</v>
       </c>
@@ -6393,6 +6927,9 @@
       <c r="G180" t="s">
         <v>363</v>
       </c>
+      <c r="H180" t="s">
+        <v>334</v>
+      </c>
       <c r="I180" t="s">
         <v>334</v>
       </c>
@@ -6419,6 +6956,9 @@
       <c r="G181" t="s">
         <v>363</v>
       </c>
+      <c r="H181" t="s">
+        <v>334</v>
+      </c>
       <c r="I181" t="s">
         <v>334</v>
       </c>
@@ -6444,6 +6984,9 @@
       </c>
       <c r="G182" t="s">
         <v>363</v>
+      </c>
+      <c r="H182" t="s">
+        <v>334</v>
       </c>
       <c r="I182" t="s">
         <v>334</v>
